--- a/TestReport.xlsx
+++ b/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>BILSPORT-Web-001</t>
   </si>
   <si>
-    <t>BilSport web application shall allow the user to register in the system</t>
+    <t>BilSport web application shall allow the user to register in the system.</t>
   </si>
   <si>
     <t>OK</t>
@@ -46,19 +46,19 @@
     <t>BILSPORT-Web-002</t>
   </si>
   <si>
-    <t>BilSport web application shall allow the user to login system</t>
+    <t>BilSport web application shall allow the user to login system.</t>
   </si>
   <si>
     <t>BILSPORT-Web-003</t>
   </si>
   <si>
-    <t>BilSport web application shall allow the user to enroll course</t>
+    <t>BilSport web application shall allow the user to enroll course.</t>
   </si>
   <si>
     <t>BILSPORT-Web-004</t>
   </si>
   <si>
-    <t>BilSport web application shall allow the user to enroll tournaments</t>
+    <t>BilSport web application shall allow the user to enroll tournaments.</t>
   </si>
   <si>
     <t>BILSPORT-Web-005</t>
@@ -88,6 +88,9 @@
     <t>BILSPORT-Web-009</t>
   </si>
   <si>
+    <t>BilSport web application shall allow admin to manage appointment</t>
+  </si>
+  <si>
     <t>BILSPORT-Web-0010</t>
   </si>
   <si>
@@ -97,10 +100,19 @@
     <t>BILSPORT-Web-0011</t>
   </si>
   <si>
-    <t>BilSport web application shall allow admin to manage resservations</t>
-  </si>
-  <si>
-    <t>BilSport web application shall allow admin to manage appointment</t>
+    <t>BilSport web application shall allow admin to manage reservations</t>
+  </si>
+  <si>
+    <t>BILSPORT-Web-0012</t>
+  </si>
+  <si>
+    <t>BilSport web application shall allow admin to manage accounts.</t>
+  </si>
+  <si>
+    <t>BILSPORT-Web-0013</t>
+  </si>
+  <si>
+    <t>BilSport web application shall allow admin to authorize staff.</t>
   </si>
   <si>
     <t xml:space="preserve">           BilSport Mobile </t>
@@ -174,17 +186,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,22 +252,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,17 +280,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,83 +379,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,49 +402,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,133 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,9 +598,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,8 +649,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,61 +693,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,130 +716,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -830,22 +850,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -857,10 +877,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1182,21 +1202,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.1142857142857" customWidth="1"/>
-    <col min="2" max="2" width="70.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="16.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="68.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="33.7904761904762" customWidth="1"/>
+    <col min="4" max="4" width="19.3238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" ht="34.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,27 +1231,35 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" ht="29" customHeight="1" spans="1:4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="29" customHeight="1" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
@@ -1240,12 +1268,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:4">
+    <row r="5" ht="26" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -1254,12 +1282,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1" spans="1:4">
+    <row r="6" ht="23" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1268,12 +1296,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="1:4">
+    <row r="7" ht="21" customHeight="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1282,12 +1310,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1" spans="1:4">
+    <row r="8" ht="22" customHeight="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1296,12 +1324,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="22" customHeight="1" spans="1:4">
+    <row r="9" ht="21" customHeight="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -1310,12 +1338,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="1:4">
+    <row r="10" ht="21" customHeight="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -1324,12 +1352,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:4">
+    <row r="11" ht="21" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -1338,12 +1366,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="19" customHeight="1" spans="1:4">
+    <row r="12" ht="21" customHeight="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
@@ -1352,12 +1380,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:4">
+    <row r="13" ht="24" customHeight="1" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -1368,10 +1396,10 @@
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -1380,9 +1408,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" ht="24" customHeight="1" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -1396,27 +1427,36 @@
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" ht="30" spans="1:4">
+    <row r="18" ht="15.75" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="26" customHeight="1" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -1425,12 +1465,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="1:4">
+    <row r="21" ht="22" customHeight="1" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1439,12 +1479,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" ht="30" spans="1:4">
+    <row r="22" ht="31" customHeight="1" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -1453,12 +1493,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="1:4">
+    <row r="23" ht="29" customHeight="1" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -1467,12 +1507,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="30" spans="1:4">
+    <row r="24" ht="29" customHeight="1" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -1481,12 +1521,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="30" spans="1:4">
+    <row r="25" ht="24" customHeight="1" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -1495,12 +1535,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" ht="30" spans="1:4">
+    <row r="26" ht="31" customHeight="1" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -1509,12 +1549,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="30" spans="1:4">
+    <row r="27" ht="24" customHeight="1" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -1523,31 +1563,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="30" spans="1:4">
+    <row r="28" ht="25" customHeight="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" ht="30" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="s">
         <v>8</v>
       </c>
     </row>
